--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161392.9253638791</v>
+        <v>158829.9050279745</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.58753137643988</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7039249234852</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>113.4151977497083</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>6.795885841555229</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>110.4637346787652</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>205.1165526564929</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>224.4529749841859</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>143.8843955160137</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.3245948814304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>214.0259953870919</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>182.6592008127733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>128.441532813982</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>75.70737290528169</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182105</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419834048</v>
       </c>
       <c r="I13" t="n">
-        <v>23.10998325717215</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.146142788179874</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717217</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
-        <v>115.7063133373728</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>37.40501058442985</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.9505536053398</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="C2" t="n">
-        <v>383.988036664928</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="D2" t="n">
-        <v>383.988036664928</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="E2" t="n">
-        <v>383.988036664928</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1529.689725645273</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1139.550393669462</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.952841081272</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1432.952841081272</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1178.268352875386</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>1178.268352875386</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X4" t="n">
-        <v>950.2788019773682</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>950.2788019773682</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1416.181083656476</v>
+        <v>681.0854746196783</v>
       </c>
       <c r="C5" t="n">
-        <v>1047.218566716064</v>
+        <v>681.0854746196783</v>
       </c>
       <c r="D5" t="n">
-        <v>688.9528681093136</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>688.9528681093136</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>277.9669633197061</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005981</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270161</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.94973892659</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656476</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.181083656476</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y5" t="n">
-        <v>1416.181083656476</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,34 +4641,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328577</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925522</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.387056101684</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2318.569789933981</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.8067472977393</v>
+        <v>491.3876008968052</v>
       </c>
       <c r="C7" t="n">
-        <v>603.8705643698324</v>
+        <v>491.3876008968052</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>491.3876008968052</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>343.4745073144121</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>196.5845598165018</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>196.5845598165018</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X7" t="n">
-        <v>886.2659340466589</v>
+        <v>673.036065727045</v>
       </c>
       <c r="Y7" t="n">
-        <v>772.8067472977393</v>
+        <v>673.036065727045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.324637962024</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1488.848165855093</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552734</v>
+        <v>1130.582467248342</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570292</v>
+        <v>744.794214650098</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>333.8083098604904</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1855.428721271371</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1670.924478026146</v>
+        <v>1857.810682795504</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>304.708719694601</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>599.4122767260728</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505111</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
         <v>1867.77024428415</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.2860735999672</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>369.3498906720603</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.078450200034</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1020.960112703871</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V10" t="n">
-        <v>766.2756244979845</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W10" t="n">
-        <v>766.2756244979845</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="X10" t="n">
-        <v>538.2860735999672</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.2860735999672</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597624</v>
+        <v>194.800778399831</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773693</v>
+        <v>194.800778399831</v>
       </c>
       <c r="F13" t="n">
-        <v>117.1600804794589</v>
+        <v>194.800778399831</v>
       </c>
       <c r="G13" t="n">
-        <v>117.1600804794589</v>
+        <v>194.800778399831</v>
       </c>
       <c r="H13" t="n">
-        <v>117.1600804794589</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5419,13 +5419,13 @@
         <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2330.088019603117</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2110.486554626058</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1821.411327970255</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1566.726839764368</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1277.309669727408</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>380.8823046593499</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>213.6862053742298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,19 +6127,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6221,31 +6221,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7312,31 +7312,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7415,46 +7415,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985679</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>294.8344935184739</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.1672460959143</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.454437538928858</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>280.1079373569282</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.94575946518875</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1721208182262</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788338</v>
       </c>
       <c r="I13" t="n">
-        <v>58.15585306139337</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
-        <v>65.3199726642718</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890358</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.889702261794</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185644</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406858</v>
+        <v>317255.876140686</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="H2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.304868253</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="N2" t="n">
-        <v>343037.3048682527</v>
-      </c>
       <c r="O2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682529</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.97983407907</v>
+        <v>90558.9798340791</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719668</v>
@@ -26430,10 +26430,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26445,16 +26445,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719727</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.368461719656</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="N4" t="n">
-        <v>7507.368461719729</v>
-      </c>
       <c r="O4" t="n">
-        <v>7507.368461719703</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
-      </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-980992.6597091579</v>
+        <v>-981179.0530976962</v>
       </c>
       <c r="C6" t="n">
-        <v>122891.1162057313</v>
+        <v>122891.1162057312</v>
       </c>
       <c r="D6" t="n">
         <v>122891.1162057313</v>
       </c>
       <c r="E6" t="n">
-        <v>-273078.03504192</v>
+        <v>-273112.7729673559</v>
       </c>
       <c r="F6" t="n">
-        <v>234407.406582626</v>
+        <v>234372.6686571903</v>
       </c>
       <c r="G6" t="n">
-        <v>234407.4065826259</v>
+        <v>234372.6686571905</v>
       </c>
       <c r="H6" t="n">
-        <v>234407.406582626</v>
+        <v>234372.6686571902</v>
       </c>
       <c r="I6" t="n">
-        <v>234407.4065826262</v>
+        <v>234372.6686571903</v>
       </c>
       <c r="J6" t="n">
-        <v>66802.22877264333</v>
+        <v>66767.49084720769</v>
       </c>
       <c r="K6" t="n">
-        <v>234407.4065826262</v>
+        <v>234372.6686571907</v>
       </c>
       <c r="L6" t="n">
-        <v>234407.4065826259</v>
+        <v>234372.6686571901</v>
       </c>
       <c r="M6" t="n">
-        <v>101800.1128536995</v>
+        <v>101765.3749282633</v>
       </c>
       <c r="N6" t="n">
-        <v>234407.4065826261</v>
+        <v>234372.6686571905</v>
       </c>
       <c r="O6" t="n">
-        <v>234407.406582626</v>
+        <v>234372.6686571905</v>
       </c>
       <c r="P6" t="n">
-        <v>234407.406582626</v>
+        <v>234372.6686571904</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>234.2005508218519</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>256.3159029287607</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>213.9528101556567</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.245920710272</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>149.56648896419</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.0947277887681</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.367113639115189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>106.2600584706644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>197.5217073858621</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>203.5787378432803</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>92.30716318322996</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>210.8156254313093</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>487.5039436775321</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>695.2222086167877</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362267</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362267</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256856</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9556134883069083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35021,22 +35021,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>630.2591755145969</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>221.6479684267689</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>193.0419337824138</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>577.7882979947783</v>
       </c>
       <c r="M9" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>356.1622315941988</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>563.8804965334544</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402486</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402486</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
